--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2384.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2384.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>-1</v>
+        <v>0.9167267680168152</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.790721416473389</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.097220897674561</v>
       </c>
       <c r="D1">
-        <v>0.8509902069218813</v>
+        <v>3.523437976837158</v>
       </c>
       <c r="E1">
-        <v>0.6388719149651225</v>
+        <v>1.491192221641541</v>
       </c>
     </row>
   </sheetData>
